--- a/Universal_Driver_soft/UD_v4/API.xlsx
+++ b/Universal_Driver_soft/UD_v4/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\Universal_Driver\Universal_Driver_soft\UD_v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1466A532-0DCA-460D-852E-540FB571AA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6580B657-DFC2-45B3-86CB-A80CD708ACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="182">
   <si>
     <t>№</t>
   </si>
@@ -565,6 +565,15 @@
     D0 =0
     D_0_1 =1
     D1 =2</t>
+  </si>
+  <si>
+    <t>Старт мотора в бесконечном режиме</t>
+  </si>
+  <si>
+    <t>OK или "noStart"</t>
+  </si>
+  <si>
+    <t>C1A0D1N0x</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1091,7 +1100,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1102,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
@@ -1125,74 +1134,74 @@
         <v>7</v>
       </c>
       <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="6" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
@@ -1203,51 +1212,51 @@
         <v>18</v>
       </c>
       <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>8</v>
@@ -1264,16 +1273,16 @@
         <v>8</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>5</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>8</v>
@@ -1290,13 +1299,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
@@ -1307,51 +1316,51 @@
         <v>24</v>
       </c>
       <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -1359,25 +1368,25 @@
         <v>30</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -1385,25 +1394,25 @@
         <v>30</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1411,48 +1420,48 @@
         <v>30</v>
       </c>
       <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>8</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
@@ -1463,48 +1472,48 @@
         <v>38</v>
       </c>
       <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>9</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
@@ -1515,48 +1524,48 @@
         <v>44</v>
       </c>
       <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>10</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
@@ -1567,256 +1576,256 @@
         <v>48</v>
       </c>
       <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>10</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="D22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>11</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="C23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
         <v>12</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C24" s="11">
         <v>1</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="D24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+    <row r="25" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
         <v>13</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="10" t="s">
+      <c r="E25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>14</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>15</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+    <row r="28" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>16</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="E28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>17</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+    <row r="30" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
         <v>20</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C30" s="8">
         <v>0</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="E30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
-        <v>21</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
@@ -1827,7 +1836,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>8</v>
@@ -1836,13 +1845,13 @@
         <v>8</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
@@ -1853,430 +1862,456 @@
         <v>73</v>
       </c>
       <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>21</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="7">
         <v>3</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="D33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+    <row r="34" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
         <v>22</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="10" t="s">
+      <c r="C34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="35" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>23</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>24</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C36" s="4">
         <v>0</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="E36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+    <row r="37" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
         <v>25</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C37" s="6">
         <v>1</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="E37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+    <row r="38" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>27</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C38" s="5">
         <v>0</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="E38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+    <row r="39" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
         <v>28</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C39" s="8">
         <v>1</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="D39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G39" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+    <row r="40" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
         <v>30</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C40" s="7">
         <v>0</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+    <row r="42" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="75" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
         <v>0</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+    <row r="45" spans="1:8" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
         <v>1</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="131.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+    <row r="46" spans="1:8" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
         <v>2</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>3</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
+        <v>3</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
         <v>4</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+    <row r="50" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-    </row>
-    <row r="50" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>0</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
+        <v>0</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
         <v>1</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
         <v>2</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>3</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <v>4</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+    <row r="58" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-    </row>
-    <row r="58" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+    </row>
+    <row r="59" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
-        <v>0</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
+        <v>0</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
         <v>1</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
+    <row r="62" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
         <v>2</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
+    <row r="63" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
         <v>3</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
+    <row r="64" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
         <v>4</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>172</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A58:C58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
